--- a/BT01/Phân công công việc.xlsx
+++ b/BT01/Phân công công việc.xlsx
@@ -186,17 +186,17 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -534,32 +534,32 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -708,147 +708,151 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="10">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10">
+      <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="10">
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10">
+      <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="6"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -943,6 +947,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
@@ -951,20 +968,7 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
